--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\excelviz\excelvizjs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A878CA6-FF92-4E39-A0A1-D90F9016F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C9868-CA4E-4610-A2B7-C7DC8ADC3B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,8 +121,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>31915</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -141,7 +141,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -186,8 +186,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>92850</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -206,7 +206,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -251,8 +251,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>126815</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -271,7 +271,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -316,8 +316,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>15090</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -336,7 +336,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -381,8 +381,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>175775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -401,7 +401,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -446,8 +446,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156710</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -466,7 +466,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -511,8 +511,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>100520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Ink 23">
@@ -531,7 +531,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Ink 23">
@@ -576,8 +576,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>145395</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -596,7 +596,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -641,8 +641,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>70640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Ink 25">
@@ -661,7 +661,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Ink 25">
@@ -870,7 +870,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
@@ -888,7 +888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4248150" y="1685925"/>
-          <a:ext cx="755650" cy="247650"/>
+          <a:ext cx="901700" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -917,7 +917,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>C: Sum</a:t>
+            <a:t>C: Sum AB</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -989,7 +989,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -1007,7 +1007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5603875" y="1676400"/>
-          <a:ext cx="498475" cy="247650"/>
+          <a:ext cx="638175" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1036,7 +1036,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>E</a:t>
+            <a:t>E: C+A</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1046,7 +1046,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -1072,8 +1072,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5003800" y="1800225"/>
-          <a:ext cx="600075" cy="9525"/>
+          <a:off x="5149850" y="1800225"/>
+          <a:ext cx="454025" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1228,7 +1228,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
+      <xdr:colOff>436563</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
@@ -1249,7 +1249,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5457825" y="1924050"/>
-          <a:ext cx="395288" cy="423863"/>
+          <a:ext cx="465138" cy="423863"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1284,7 +1284,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1302,7 +1302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5645150" y="3038475"/>
-          <a:ext cx="498475" cy="247650"/>
+          <a:ext cx="650875" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1331,11 +1331,480 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>8</a:t>
+            <a:t>8: 2-3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB5AFB4-8DC0-4CBA-8B06-E04E66006B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4949825" y="2886075"/>
+          <a:ext cx="279400" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBA670A-1C92-432B-9771-EAA99FF0A8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946650" y="3352800"/>
+          <a:ext cx="279400" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connector: Elbow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A995353-9A05-7D97-3FC7-9B6884618E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="3021013"/>
+          <a:ext cx="415925" cy="141287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1DB944-9B5D-A4A8-4000-138DF8913566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="96" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5226050" y="3286125"/>
+          <a:ext cx="744538" cy="201613"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connector: Elbow 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99325C8D-EA16-5279-0608-40AD896BD650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="2"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3604419" y="1675606"/>
+          <a:ext cx="1084263" cy="1606550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73024</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connector: Elbow 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8CCAFA-925D-4081-4DDB-384879606247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4280693" y="2351881"/>
+          <a:ext cx="1087438" cy="250825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connector: Elbow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A39CC3-0AB9-9A52-CF1E-B09BA85AECC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="1962150"/>
+          <a:ext cx="1619250" cy="1525588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 784"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connector: Elbow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048B05A5-02EE-084B-2459-D3209D2589C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4045744" y="2586831"/>
+          <a:ext cx="1554163" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1879,7 +2348,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\excelviz\excelvizjs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C9868-CA4E-4610-A2B7-C7DC8ADC3B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB3FC7-A83C-450A-BEE4-184A520CA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1782,6 +1782,185 @@
         <a:xfrm rot="16200000" flipH="1">
           <a:off x="4045744" y="2586831"/>
           <a:ext cx="1554163" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Process 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CABCD0-853F-40EC-9022-751941359F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644775" y="1689100"/>
+          <a:ext cx="381000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connector: Elbow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F599940-9FB5-D9D1-75A2-03FBA3B95EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841625" y="1971675"/>
+          <a:ext cx="2108200" cy="1049338"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 301"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69849</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913DAFD0-A214-4D91-57B2-2B6FDF2F327F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3115468" y="1656556"/>
+          <a:ext cx="1550988" cy="2111375"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2348,7 +2527,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2457,6 +2636,10 @@
         <f>C2-C3</f>
         <v>-28</v>
       </c>
+      <c r="D8" s="1">
+        <f>D2-D3</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
